--- a/doc/Sprint10/routes table/routes_table.xlsx
+++ b/doc/Sprint10/routes table/routes_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrirahmanto/flask/fishapi/doc/Sprint04/routes table/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrirahmanto/flask/fishapi/doc/Sprint10/routes table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B41E90-B9D4-2043-BBFE-83E83E9BA1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66546239-26B5-584E-922F-AC6DA4E21AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{C254AC1B-B4CF-49CB-B06F-3FDC00B6733D}"/>
+    <workbookView xWindow="1100" yWindow="500" windowWidth="27700" windowHeight="16000" xr2:uid="{C254AC1B-B4CF-49CB-B06F-3FDC00B6733D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -91,45 +91,15 @@
     <t>READ</t>
   </si>
   <si>
-    <t>menampilkan seluruh riwayat pemberian pangan yang sudah terdaftar</t>
-  </si>
-  <si>
-    <t>menambahkan / mendaftarkan riwayat pemberian pangan</t>
-  </si>
-  <si>
-    <t>menampilkan detail suatu riwayat pemberian pangan</t>
-  </si>
-  <si>
-    <t>memperbaharui detail suatu riwayat pemberian pangan</t>
-  </si>
-  <si>
-    <t>menghapus informasi suatu riwayat pemberian pangan</t>
-  </si>
-  <si>
-    <t>/loguser</t>
-  </si>
-  <si>
-    <t>menampilkan seluruh riwayat penggunaan user yang sudah terdaftar</t>
-  </si>
-  <si>
-    <t>menampilkan detail suatu riwayat penggunaan user</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
     <t>kolam</t>
   </si>
   <si>
-    <t>loguser</t>
-  </si>
-  <si>
     <t>pemberian pakan</t>
   </si>
   <si>
-    <t>/loguser/{loguser_id}</t>
-  </si>
-  <si>
     <t>/api/ponds</t>
   </si>
   <si>
@@ -182,6 +152,198 @@
   </si>
   <si>
     <t>menampilkan aktifasi dan diaktifasi list kolam berdasarkan pond_id</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>registrasi pakan</t>
+  </si>
+  <si>
+    <t>/api/feedtypes</t>
+  </si>
+  <si>
+    <t>menambahkan / mendaftarkan pakan</t>
+  </si>
+  <si>
+    <t>menampilkan seluruh pakan yang sudah di daftarkan</t>
+  </si>
+  <si>
+    <t>menampilkan detail suatu pakan</t>
+  </si>
+  <si>
+    <t>menampilkan seluruh riwayat pemberian pakan yang sudah terdaftar</t>
+  </si>
+  <si>
+    <t>menambahkan / mendaftarkan riwayat pemberian pakan</t>
+  </si>
+  <si>
+    <t>menampilkan detail suatu riwayat pemberian pakan</t>
+  </si>
+  <si>
+    <t>memperbaharui detail suatu riwayat pemberian pakan</t>
+  </si>
+  <si>
+    <t>menghapus informasi suatu riwayat pemberian pakan</t>
+  </si>
+  <si>
+    <t>/api/feedtype/{feedtype_id}</t>
+  </si>
+  <si>
+    <t>menghapus informasi suatu pakan</t>
+  </si>
+  <si>
+    <t>pencatatan data kematian ikan</t>
+  </si>
+  <si>
+    <t>/api/fishdeath</t>
+  </si>
+  <si>
+    <t>/api/fishdeath/{fishdeath_id}</t>
+  </si>
+  <si>
+    <t>menampilkan seluruh data kematian ikan</t>
+  </si>
+  <si>
+    <t>menambahkan data kematian ikan</t>
+  </si>
+  <si>
+    <t>menampilkan detail suatu data kematian ikan</t>
+  </si>
+  <si>
+    <t>memperbaharui detail data kematian ikan</t>
+  </si>
+  <si>
+    <t>menghapus suatu data kematian ikan</t>
+  </si>
+  <si>
+    <t>sortir ikan</t>
+  </si>
+  <si>
+    <t>/api/fishtransfer</t>
+  </si>
+  <si>
+    <t>menampilkan seluruh data sortir ikan</t>
+  </si>
+  <si>
+    <t>menambahkan data sortir ikan</t>
+  </si>
+  <si>
+    <t>menampilkan detail suatu data sortir ikan</t>
+  </si>
+  <si>
+    <t>memperbaharui detail data sortir ikan</t>
+  </si>
+  <si>
+    <t>menghapus suatu data sortir ikan</t>
+  </si>
+  <si>
+    <t>/api/fishtransfer/{fishtransfer_id}</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>grading berat ikan</t>
+  </si>
+  <si>
+    <t>/api/fishgradings</t>
+  </si>
+  <si>
+    <t>/api/fishgradings/{fishgrading_id}</t>
+  </si>
+  <si>
+    <t>/api/fishgradings/graph</t>
+  </si>
+  <si>
+    <t>menampilkan seluruh data grading berat ikan semua kolam dalam satu tahun</t>
+  </si>
+  <si>
+    <t>pengukuran kualitas air harian</t>
+  </si>
+  <si>
+    <t>/api/dailywaterquality</t>
+  </si>
+  <si>
+    <t>/api/dailywaterquality/{dailywaterquality_id}</t>
+  </si>
+  <si>
+    <t>menampilkan seluruh data grading berat ikan</t>
+  </si>
+  <si>
+    <t>menambahkan data grading berat ikan</t>
+  </si>
+  <si>
+    <t>menampilkan detail suatu data grading berat ikan</t>
+  </si>
+  <si>
+    <t>memperbaharui detail data grading berat ikan</t>
+  </si>
+  <si>
+    <t>menghapus suatu data grading berat ikan</t>
+  </si>
+  <si>
+    <t>menampilkan seluruh data pengukuran kualitas air harian</t>
+  </si>
+  <si>
+    <t>menambahkan data pengukuran kualitas air harian</t>
+  </si>
+  <si>
+    <t>menampilkan detail suatu data pengukuran kualitas air harian</t>
+  </si>
+  <si>
+    <t>memperbaharui detail data pengukuran kualitas air harian</t>
+  </si>
+  <si>
+    <t>menghapus suatu data pengukuran kualitas air harian</t>
+  </si>
+  <si>
+    <t>pengukuran kualitas air mingguan</t>
+  </si>
+  <si>
+    <t>/api/weeklywaterquality</t>
+  </si>
+  <si>
+    <t>/api/weeklywaterquality/{weeklywaterquality_id}</t>
+  </si>
+  <si>
+    <t>menampilkan seluruh data pengukuran kualitas air mingguan</t>
+  </si>
+  <si>
+    <t>menambahkan data pengukuran kualitas air mingguan</t>
+  </si>
+  <si>
+    <t>menampilkan detail suatu data pengukuran kualitas air mingguan</t>
+  </si>
+  <si>
+    <t>memperbaharui detail data pengukuran kualitas air mingguan</t>
+  </si>
+  <si>
+    <t>menghapus suatu data pengukuran kualitas air mingguan</t>
+  </si>
+  <si>
+    <t>treatment kolam</t>
+  </si>
+  <si>
+    <t>/api/pondtreatment</t>
+  </si>
+  <si>
+    <t>/api/pondtreatment/{pondtreatment_id}</t>
+  </si>
+  <si>
+    <t>menampilkan seluruh data treatment kolam</t>
+  </si>
+  <si>
+    <t>menambahkan data treatment kolam</t>
+  </si>
+  <si>
+    <t>menampilkan detail suatu data treatment kolam</t>
+  </si>
+  <si>
+    <t>memperbaharui detail data treatment kolam</t>
+  </si>
+  <si>
+    <t>menghapus suatu data treatment kolam</t>
   </si>
 </sst>
 </file>
@@ -197,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,8 +402,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -264,48 +432,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -325,24 +456,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,24 +794,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9212EE-4B8C-4B45-BD8A-30CF3A593525}">
-  <dimension ref="A2:E26"/>
+  <dimension ref="A2:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="64.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -688,326 +827,952 @@
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="F3" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="14">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="19"/>
+      <c r="B51" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" s="19"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="19"/>
+      <c r="B52" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" s="19"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="19"/>
+      <c r="B53" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" s="19"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="19"/>
+      <c r="B54" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" s="19"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="14"/>
+      <c r="B57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="14"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="14"/>
+      <c r="B58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="14"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="14"/>
+      <c r="B59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" s="14"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="14"/>
+      <c r="B60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="14"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F62" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="2" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="10"/>
+      <c r="B63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C63" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
+      <c r="E63" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
+      <c r="B64" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="2" t="s">
+      <c r="C64" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="10"/>
+      <c r="B65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C65" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="2" t="s">
+      <c r="E65" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="10"/>
+      <c r="B66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C66" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="E66" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="A11:A14"/>
+  <mergeCells count="20">
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="F50:F54"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="F42:F48"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="F4:F11"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="F30:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Sprint10/routes table/routes_table.xlsx
+++ b/doc/Sprint10/routes table/routes_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrirahmanto/flask/fishapi/doc/Sprint10/routes table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66546239-26B5-584E-922F-AC6DA4E21AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CDA5B0-7975-8745-BA71-707ECE893C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="500" windowWidth="27700" windowHeight="16000" xr2:uid="{C254AC1B-B4CF-49CB-B06F-3FDC00B6733D}"/>
   </bookViews>
@@ -359,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,12 +387,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -445,11 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,10 +447,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -473,13 +459,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,6 +484,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>567267</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F0C2006-C2C3-074E-E83B-C1D7A0E6C462}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12073467" y="338667"/>
+          <a:ext cx="11404600" cy="12382500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -796,15 +834,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9212EE-4B8C-4B45-BD8A-30CF3A593525}">
   <dimension ref="A2:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
@@ -832,7 +870,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -847,12 +885,12 @@
       <c r="E4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -865,10 +903,10 @@
       <c r="E5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
@@ -881,10 +919,10 @@
       <c r="E6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -897,10 +935,10 @@
       <c r="E7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -913,18 +951,18 @@
       <c r="E8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
@@ -937,10 +975,10 @@
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
@@ -953,18 +991,18 @@
       <c r="E11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="16"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -979,12 +1017,12 @@
       <c r="E13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <v>1.2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
@@ -997,10 +1035,10 @@
       <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1013,10 +1051,10 @@
       <c r="E15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1029,10 +1067,10 @@
       <c r="E16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="4" t="s">
         <v>7</v>
       </c>
@@ -1045,7 +1083,7 @@
       <c r="E17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
@@ -1056,7 +1094,7 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1071,12 +1109,12 @@
       <c r="E19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1089,10 +1127,10 @@
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
@@ -1105,10 +1143,10 @@
       <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1121,10 +1159,10 @@
       <c r="E22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1137,94 +1175,94 @@
       <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1239,12 +1277,12 @@
       <c r="E30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="10">
         <v>5.6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
@@ -1257,10 +1295,10 @@
       <c r="E31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="3" t="s">
         <v>17</v>
       </c>
@@ -1273,10 +1311,10 @@
       <c r="E32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="14"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1289,10 +1327,10 @@
       <c r="E33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="14"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="3" t="s">
         <v>7</v>
       </c>
@@ -1305,10 +1343,18 @@
       <c r="E34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="14"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1323,12 +1369,12 @@
       <c r="E36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="8">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
@@ -1341,10 +1387,10 @@
       <c r="E37" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="10"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="4" t="s">
         <v>17</v>
       </c>
@@ -1357,10 +1403,10 @@
       <c r="E38" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="4" t="s">
         <v>5</v>
       </c>
@@ -1373,10 +1419,10 @@
       <c r="E39" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="4" t="s">
         <v>7</v>
       </c>
@@ -1389,10 +1435,18 @@
       <c r="E40" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1407,12 +1461,12 @@
       <c r="E42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
@@ -1425,10 +1479,10 @@
       <c r="E43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
@@ -1441,10 +1495,10 @@
       <c r="E44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
@@ -1457,10 +1511,10 @@
       <c r="E45" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
@@ -1473,18 +1527,18 @@
       <c r="E46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="9"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="2" t="s">
         <v>17</v>
       </c>
@@ -1497,94 +1551,110 @@
       <c r="E48" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="20" t="s">
+      <c r="D50" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="15">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="19"/>
+      <c r="F51" s="15"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20" t="s">
+      <c r="A52" s="15"/>
+      <c r="B52" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="20" t="s">
+      <c r="D52" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F52" s="19"/>
+      <c r="F52" s="15"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20" t="s">
+      <c r="A53" s="15"/>
+      <c r="B53" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="19"/>
+      <c r="F53" s="15"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20" t="s">
+      <c r="A54" s="15"/>
+      <c r="B54" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F54" s="19"/>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -1599,12 +1669,12 @@
       <c r="E56" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="3" t="s">
         <v>6</v>
       </c>
@@ -1617,10 +1687,10 @@
       <c r="E57" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="14"/>
+      <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="14"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="3" t="s">
         <v>17</v>
       </c>
@@ -1633,10 +1703,10 @@
       <c r="E58" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F58" s="14"/>
+      <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="3" t="s">
         <v>5</v>
       </c>
@@ -1649,10 +1719,10 @@
       <c r="E59" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="14"/>
+      <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="14"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="3" t="s">
         <v>7</v>
       </c>
@@ -1665,10 +1735,18 @@
       <c r="E60" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F60" s="14"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -1683,12 +1761,12 @@
       <c r="E62" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="4" t="s">
         <v>6</v>
       </c>
@@ -1701,10 +1779,10 @@
       <c r="E63" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F63" s="10"/>
+      <c r="F63" s="8"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="10"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="4" t="s">
         <v>17</v>
       </c>
@@ -1717,10 +1795,10 @@
       <c r="E64" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F64" s="10"/>
+      <c r="F64" s="8"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="10"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="4" t="s">
         <v>5</v>
       </c>
@@ -1733,10 +1811,10 @@
       <c r="E65" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F65" s="10"/>
+      <c r="F65" s="8"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="10"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="4" t="s">
         <v>7</v>
       </c>
@@ -1749,7 +1827,7 @@
       <c r="E66" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F66" s="10"/>
+      <c r="F66" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1775,5 +1853,6 @@
     <mergeCell ref="F30:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>